--- a/Sprint#5/pruebas individuales Stacy/Log_pruebas_individuales_RF-45.xlsx
+++ b/Sprint#5/pruebas individuales Stacy/Log_pruebas_individuales_RF-45.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#5\pruebas individuales Oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STACY\Documents\GitHub\SIGAB\Sprint#5\pruebas individuales Stacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200AB12-3434-42AB-8C56-D43362C60E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 33" sheetId="1" r:id="rId1"/>
@@ -25,35 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
-  </authors>
-  <commentList>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="107">
   <si>
     <t>Observación</t>
   </si>
@@ -403,13 +377,16 @@
     <t>El resultado de la búsqueda se debe poder descargar por medio de un documento pdf que siga el formato del anexo 1.</t>
   </si>
   <si>
-    <t>Oscar Alvarado Gutiérrez</t>
+    <t>Stacy Gonzalez Santamaria</t>
+  </si>
+  <si>
+    <t>Involucramiento probado para el personal: Jenny Ulate Montero, Freddy Oviedo Gonzalez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -695,10 +672,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,7 +690,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,60 +710,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>175259</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367828</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8701D5D9-3BFD-4F90-AADF-728AC9E35013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5B37BF-A801-4E1A-905A-E28783372061}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11715750" cy="8648700"/>
+          <a:off x="175259" y="184192"/>
+          <a:ext cx="8117369" cy="4032601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -799,9 +755,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="RITA CORTES  CHAVARRIA" id="{B52250F9-65D8-4FFF-930F-65C201CB807F}" userId="S::rita.cortes.chavarria@una.ac.cr::c0e6c229-df6a-45a8-b6e1-f2937c491d41" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,130 +1053,122 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A18" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
-    <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12">
         <v>45</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>44334</v>
+        <v>44327</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
@@ -1248,7 +1194,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>103</v>
       </c>
@@ -1257,7 +1203,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
@@ -1267,7 +1213,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>2</v>
       </c>
@@ -1275,67 +1221,54 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="27"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1348,41 +1281,40 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" customWidth="1"/>
-    <col min="12" max="12" width="38.5703125" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="15" width="46.140625" customWidth="1"/>
-    <col min="16" max="16" width="33.28515625" customWidth="1"/>
-    <col min="17" max="17" width="36.42578125" customWidth="1"/>
-    <col min="18" max="18" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" customWidth="1"/>
+    <col min="12" max="12" width="38.5546875" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="15" width="46.109375" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="36.44140625" customWidth="1"/>
+    <col min="18" max="18" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="s">
         <v>35</v>
@@ -1492,7 +1424,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>50</v>
@@ -1538,7 +1470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>55</v>
@@ -1590,7 +1522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>55</v>
@@ -1640,7 +1572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
         <v>55</v>
@@ -1694,7 +1626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>55</v>
@@ -1746,7 +1678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>55</v>
@@ -1798,7 +1730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
         <v>55</v>
@@ -1848,7 +1780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
     </row>
   </sheetData>
@@ -1858,14 +1790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
